--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_8_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_8_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46181.4907895037</v>
+        <v>9190116.667111235</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>46181.4907895037</v>
+        <v>9190116.667111235</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2262.939762247196</v>
+        <v>135776.3857348318</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2262.939762247196</v>
+        <v>135776.3857348318</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112117994.498526</v>
+        <v>45249604.81963996</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9043.909733750816</v>
+        <v>986591.1992838718</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17615.70235886388</v>
+        <v>1899611.867155761</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26187.49498397694</v>
+        <v>2812632.535027652</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35121.43779351977</v>
+        <v>3736649.286844542</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44000.26302730502</v>
+        <v>4649697.641085674</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>52879.08826109026</v>
+        <v>5562745.995326804</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>61757.9134948755</v>
+        <v>6475794.349567932</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>71455.70196098396</v>
+        <v>7424080.256940372</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>80591.97908387525</v>
+        <v>8293213.409248255</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>89850.2117623221</v>
+        <v>9186615.717111694</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>98928.83820822852</v>
+        <v>10099664.07135283</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>107752.5458662562</v>
+        <v>11001744.02801821</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>116631.3711000414</v>
+        <v>11914792.38225935</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>125510.1963338267</v>
+        <v>12827840.73650048</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>134389.0215676119</v>
+        <v>13740889.09074162</v>
       </c>
     </row>
   </sheetData>
